--- a/kit-kat.xlsx
+++ b/kit-kat.xlsx
@@ -1,165 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nevton\Music\projeto-2-CD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D9C2C2-A4A4-4FF4-822B-B101F102F72A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
+    <t>.
+csa 2x0 chape
+comparativo do csa
+antes da c. américa:
+9 rodadas - 6 pts
+depois da c. américa:
+9 rodadas - 9 pts
+projeção final (38 rodadas): 34 pts. 
+é. mesmo com a melhora,  não se compra um kit-kat na esquina. 
+já a chape, dessa vez nem são expedito. 
+.</t>
+  </si>
+  <si>
+    <t>kit-kat é muito bom mn</t>
+  </si>
+  <si>
+    <t>gente eu comprei 6 kit-kat por 10 reais na americanas. 6, vocês têm noção ? seis</t>
+  </si>
+  <si>
     <t>lançou android 10 / lembrei que meu celular tá no kit-kat https://t.co/hvr1jdtkz5</t>
   </si>
   <si>
-    <t>no ensino medio as tiazinha compraram kit-kat e m&amp;amp;m pra mim no meu aniver https://t.co/mjnevrptrq</t>
-  </si>
-  <si>
-    <t>vontade de comer um kit-kat</t>
+    <t>seloco, a buser deu logo kit-kat para os viajantes. bom momento para estar ao lado de hamamoto, ganhei logo dois.</t>
+  </si>
+  <si>
+    <t>7 de setembro✅
+feriado ✅
+sábado ✅
+farra🚫
+festa 🚫
+curtição 🚫
+________________________
+almoço✅
+ lanche ✅
+ netflix✅
+melhor companhia✅
+obrigado por mais um dia kit-kat
+@katleenmelo94
+te amo😍</t>
   </si>
   <si>
     <t>comprei um kit-kat e um suflair, minha tpm agradece.</t>
   </si>
   <si>
-    <t>@bbattbitch você e higor criticam meus lanchinhos, mas eu ia levar alguns hoje 
-acabei levando kit-kat</t>
-  </si>
-  <si>
-    <t>eu amo kit-kat nuuuum nível não você não tem noção</t>
-  </si>
-  <si>
-    <t>kit-kat de maracujá, pq tão bom??</t>
-  </si>
-  <si>
-    <t>coe cr eu só roubei os kit-kat e aqueles doces lá kkkkkkkkkk https://t.co/shgwvuwtyx</t>
-  </si>
-  <si>
-    <t>bruninho, kelly e eu amassamos o bolo em menos de 3 minutos kkkkkkkkkk deu até briga por causa do kit-kat</t>
-  </si>
-  <si>
-    <t>se eu comi os kit-kat que minha mãe comprou pro meu namorado foi porque eu mereci</t>
+    <t>po amo ir na casa da minha irmã mesmo ela nao deixando eu entrar, mais ela ja sabe me agradar veio logo com dois danone e um kit-kat 😜</t>
+  </si>
+  <si>
+    <t>já percebi! estão organizados com os srs. das máquinas de snacks! é que o pessoal em vez de fazer fila na porta de embarque, fazem fila para comprar kit-kat a prai 5€ 🤑🤑</t>
+  </si>
+  <si>
+    <t>@thawan302 kit-kat nem se oferece meu amigo! kkkkk</t>
+  </si>
+  <si>
+    <t>minha mãe comprou fini e kit-kat pra mim🥰</t>
+  </si>
+  <si>
+    <t>@nicolemoreira__ mas é obv q ia traumatizar, pra uma bartinha de kit-kat deve ser desmatado um campo d futebol (sla), qnts macacos n morrem com isso?</t>
+  </si>
+  <si>
+    <t>rt @felipesant26: kit-kat é muito bom mn</t>
+  </si>
+  <si>
+    <t>surtando mas surtando com o menino que eu gosto enquanto como kit-kat</t>
   </si>
   <si>
     <t>meu pai me comprou kit-kat❤</t>
   </si>
   <si>
-    <t>@eddiembf @maggisteff tua cara kit-kat😁 @katleenmelo94
-pãozinho assado 😋</t>
-  </si>
-  <si>
-    <t>minha mãe comprou dois kit-kat p mim e foi buscar a barra orei.🤤</t>
-  </si>
-  <si>
-    <t>queria um chocolate branco, aliás! nunca experimentei o kit-kat branco pois tenho medo de me frustrar e ter perdido a oportunidade de comer o normal 🍫🐣</t>
+    <t>era só um bolo de pote de kit-kat, nunca acho por aqui quem vende 😩</t>
   </si>
   <si>
     <t>comi 4 kit-kat pra vê de preenche  essa tristeza q eu tô sentindo 😌</t>
   </si>
   <si>
-    <t>história rapidinha: uma época eu tava viciada em kit-kat, comprava todo hora todo dia. cansada disso minha mãe comprou uma caixa enorme e deixou na geladeira, comi tanntossss que enjoei, e hoje em dia nem como mais. minha mãe é esperta demais. https://t.co/cwiimgeede</t>
-  </si>
-  <si>
-    <t>@letisgraca eu adoro o kit-kat de chocolate branco... é isso</t>
-  </si>
-  <si>
-    <t>rt @eofpoficial: coe cr eu só roubei os kit-kat e aqueles doces lá kkkkkkkkkk https://t.co/shgwvuwtyx</t>
-  </si>
-  <si>
-    <t>era só um bolo de pote de kit-kat, nunca acho por aqui quem vende 😩</t>
-  </si>
-  <si>
-    <t>po amo ir na casa da minha irmã mesmo ela nao deixando eu entrar, mais ela ja sabe me agradar veio logo com dois danone e um kit-kat 😜</t>
-  </si>
-  <si>
-    <t>@thawan302 kit-kat nem se oferece meu amigo! kkkkk</t>
-  </si>
-  <si>
-    <t>rt @yasminlaia30: tô com uma vontade de comer uns kit-kat ou um doce de leite.. aaaaaaaah</t>
-  </si>
-  <si>
-    <t>passei na americanas e comprei 6 kit-kat.🍫já disse q eu amo esse chocolate❣️</t>
-  </si>
-  <si>
-    <t>*no buffet da ese*
-eu- queria um kit-kat por favor
-a senhora - só temos kit https://t.co/lbgkrvo2xo</t>
-  </si>
-  <si>
-    <t>hj q quero um kit-kat n passa ngm vendendo, ranço</t>
-  </si>
-  <si>
-    <t>era só um açaí com nutella,kit-kat ,jujuba ,sorvete e  um pouquinho de leite ninho</t>
-  </si>
-  <si>
-    <t>@sthe_ol ei mo, to com seu kit-kat 🥺</t>
-  </si>
-  <si>
-    <t>já percebi! estão organizados com os srs. das máquinas de snacks! é que o pessoal em vez de fazer fila na porta de embarque, fazem fila para comprar kit-kat a prai 5€ 🤑🤑</t>
-  </si>
-  <si>
-    <t>8hrs da manhã e eu comendo kit-kat véi, aaaaah pqp</t>
-  </si>
-  <si>
-    <t>um dia não vai faltar pirigueti gostosa igual kit-kat, pra me dar de brinde um quete, aqui nessa kinet. eu to no pique pet, marcando em 2007 um gol que ninguém se esquece, com habilidade de um mestre!</t>
-  </si>
-  <si>
-    <t>tô com uma vontade de comer uns kit-kat ou um doce de leite.. aaaaaaaah</t>
-  </si>
-  <si>
-    <t>a melhor amiga de vcs tbm dá kit-kat quando quer te desejar boa sorte em algo?
-a minha sim 😄
--&amp;gt;@calvinistha 💗 https://t.co/oj40tdlaxg</t>
-  </si>
-  <si>
-    <t>rt @gordaao_157: bruninho, kelly e eu amassamos o bolo em menos de 3 minutos kkkkkkkkkk deu até briga por causa do kit-kat</t>
-  </si>
-  <si>
-    <t>surtando mas surtando com o menino que eu gosto enquanto como kit-kat</t>
-  </si>
-  <si>
     <t>eu ofereço kit-kat orando pra pessoa recusar 😂</t>
   </si>
   <si>
-    <t>minha mãe comprou fini e kit-kat pra mim🥰</t>
-  </si>
-  <si>
-    <t>o @joaom2262 me deu kit-kat hj to até com medo de estar envenenado 🥵</t>
-  </si>
-  <si>
-    <t>@_mikasccp se você quiser ser uma boa amiga comigo e fizer igual, deixa quatro kit-kat pra trás e compra um baseado de 10 pra nós fumar comendo chocolate 🤠</t>
-  </si>
-  <si>
-    <t>não sei qual é o melhor. se é o kit-kat de limão, de morango ou de maracujá.</t>
-  </si>
-  <si>
-    <t>na cs do meu patrão é só kit-kat, machuco ❤</t>
-  </si>
-  <si>
-    <t>meu deus. comi 4 kit-kat hj pqp. eu tava me curando desse vício de chocolate. pqp</t>
-  </si>
-  <si>
-    <t>afinal não
-comi 3 bocados de bolo, um kit-kat e um pacote de oreo e passou https://t.co/sot1jlzk7m</t>
-  </si>
-  <si>
-    <t>hoje em dia é muito kit-kat  fantasiado de homem 🤦‍♂️ https://t.co/tf5e7nuwoy</t>
+    <t>fui na rua comprar um boné, não achei o boné que eu queria, comprei duas caixas de bombom e 6 kit-kat porque são coisas muito parecidas</t>
   </si>
   <si>
     <t>universo do dk (dkverse):
@@ -173,38 +111,112 @@
 entre outros baluartes da comunidade...</t>
   </si>
   <si>
-    <t>só vos digo uma coisa kit-kat @0liveira_filipe</t>
-  </si>
-  <si>
-    <t>ganhei um kit-kat da jâne hoje, mereço muito por aguentar ela!</t>
+    <t>@letisgraca eu adoro o kit-kat de chocolate branco... é isso</t>
+  </si>
+  <si>
+    <t>@laragabrielly55 nunca. agora ela quer kit-kat kkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@_mikasccp se você quiser ser uma boa amiga comigo e fizer igual, deixa quatro kit-kat pra trás e compra um baseado de 10 pra nós fumar comendo chocolate 🤠</t>
+  </si>
+  <si>
+    <t>@eddiembf @maggisteff tua cara kit-kat😁 @katleenmelo94
+pãozinho assado 😋</t>
+  </si>
+  <si>
+    <t>um dia não vai faltar pirigueti gostosa igual kit-kat, pra me dar de brinde um quete, aqui nessa kinet. eu to no pique pet, marcando em 2007 um gol que ninguém se esquece, com habilidade de um mestre!</t>
+  </si>
+  <si>
+    <t>rt @putaqtepariu13: @eduardams0 tu não sabes comer kit-kat</t>
+  </si>
+  <si>
+    <t>@voude99 vê isso aí kit-kat
+@katleenmelo94</t>
+  </si>
+  <si>
+    <t>ontem eu estava super triste por estar cheia de espinhas na testa, hoje eu ganhei 2 barras + 1 kit-kat e adivinhem? já comi uma barra de chocolate inteira e o kit kat, me diz, como não ter espinhas assim?</t>
+  </si>
+  <si>
+    <t>minha mãe comprou dois kit-kat p mim e foi buscar a barra orei.🤤</t>
+  </si>
+  <si>
+    <t>queria um chocolate branco, aliás! nunca experimentei o kit-kat branco pois tenho medo de me frustrar e ter perdido a oportunidade de comer o normal 🍫🐣</t>
+  </si>
+  <si>
+    <t>tô com uma vontade de comer uns kit-kat ou um doce de leite.. aaaaaaaah</t>
+  </si>
+  <si>
+    <t>história rapidinha: uma época eu tava viciada em kit-kat, comprava todo hora todo dia. cansada disso minha mãe comprou uma caixa enorme e deixou na geladeira, comi tanntossss que enjoei, e hoje em dia nem como mais. minha mãe é esperta demais. https://t.co/cwiimgeede</t>
+  </si>
+  <si>
+    <t>rt @yasminlaia30: tô com uma vontade de comer uns kit-kat ou um doce de leite.. aaaaaaaah</t>
+  </si>
+  <si>
+    <t>eu amo kit-kat nuuuum nível não você não tem noção</t>
+  </si>
+  <si>
+    <t>@eduardams0 tu não sabes comer kit-kat</t>
+  </si>
+  <si>
+    <t>meu deus. comi 4 kit-kat hj pqp. eu tava me curando desse vício de chocolate. pqp</t>
+  </si>
+  <si>
+    <t>passei na americanas e comprei 6 kit-kat.🍫já disse q eu amo esse chocolate❣️</t>
+  </si>
+  <si>
+    <t>rt @arnaldodk: universo do dk (dkverse):
+algodão doce e espetinho
+túnico &amp;amp; tinoco
+gordo musical (bruno de lucca)
+kit-kat
+ferrorama
+dedé
+wi…</t>
+  </si>
+  <si>
+    <t>vontade de comer um kit-kat</t>
+  </si>
+  <si>
+    <t>era só um açaí com nutella,kit-kat ,jujuba ,sorvete e  um pouquinho de leite ninho</t>
+  </si>
+  <si>
+    <t>nada supera
+surreal essa nossa parceria 😍
+te amo demais kit-kat 😉 https://t.co/xobpg5yqpw</t>
   </si>
   <si>
     <t>mt tempo que n como um kit-kat</t>
   </si>
   <si>
-    <t>kit-kat branco, pq tão maravilhoso? 😍😍</t>
-  </si>
-  <si>
-    <t>bianca me ligou só pra dizer "comprei kit-kat, amanhã levo pra você" 😍</t>
-  </si>
-  <si>
-    <t>meu primo piter brotou aqui, me deu um kit-kat, gosto muito. 😍🤤🤤</t>
-  </si>
-  <si>
-    <t>seloco, a buser deu logo kit-kat para os viajantes. bom momento para estar ao lado de hamamoto, ganhei logo dois.</t>
+    <t>kit-kat de maracujá, pq tão bom??</t>
+  </si>
+  <si>
+    <t>ganhei uma caixa de kit-kat e um saco de bala, eu nem queriaaaaaaa 😋..</t>
+  </si>
+  <si>
+    <t>[05/09/2019 19:45:50] cyntião 💖: to com fome
+ [05/09/2019 20:04:45]: vc sempre ta kkkkk
+ [05/09/2019 20:04:49] : uma pena nao estar aqui...
+ [05/09/2019 20:04:56]:ia comer um kit-kat
+dps eu mando ir a merda,não gosta</t>
+  </si>
+  <si>
+    <t>[8/9 12:56] pai: vai kit-kat ai
+[8/9 12:56] ❤: guarda o meu kkk
+[8/9 12:56] ❤: do branco pai
+[8/9 12:56] ❤: nunca te pedi nada
+[8/9 12:57] pai: não, é tudo meu
+   muito ruim cara kkkk</t>
   </si>
   <si>
     <t>Teste</t>
-  </si>
-  <si>
-    <t>(ir)relevante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,26 +268,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -322,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,27 +357,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,24 +391,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,369 +566,274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="129.90625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
